--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1359.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1359.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.177207717545781</v>
+        <v>0.9822660684585571</v>
       </c>
       <c r="B1">
-        <v>2.59800657842703</v>
+        <v>2.716087579727173</v>
       </c>
       <c r="C1">
-        <v>3.94670260373884</v>
+        <v>8.877663612365723</v>
       </c>
       <c r="D1">
-        <v>2.72542381057508</v>
+        <v>2.042148590087891</v>
       </c>
       <c r="E1">
-        <v>1.150924688192173</v>
+        <v>1.157161116600037</v>
       </c>
     </row>
   </sheetData>
